--- a/KO_Model.xlsx
+++ b/KO_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Staples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4C4A7C-D2EA-4EE3-9BE1-7432FD17516C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FEAB5-9481-4C15-A58C-CFC254AE127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30075" yWindow="2070" windowWidth="21495" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="185">
   <si>
     <t>KO</t>
   </si>
@@ -1433,25 +1433,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1520,12 +1523,12 @@
         <v>329853.03999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="13.9">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="13.9">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1550,27 +1553,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15">
+    <row r="19" spans="2:5" ht="13.9">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15">
+    <row r="20" spans="2:5" ht="13.9">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15">
+    <row r="21" spans="2:5" ht="13.9">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15">
+    <row r="22" spans="2:5" ht="13.9">
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15">
+    <row r="24" spans="2:5" ht="13.9">
       <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="4:11" ht="15">
+    <row r="35" spans="4:11" ht="13.9">
       <c r="D35" s="8" t="s">
         <v>142</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="4:11" ht="15">
+    <row r="36" spans="4:11" ht="13.9">
       <c r="D36" s="1" t="s">
         <v>164</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="4:11" ht="15">
+    <row r="37" spans="4:11" ht="13.9">
       <c r="D37" s="1" t="s">
         <v>165</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="4:11" ht="15">
+    <row r="38" spans="4:11" ht="13.9">
       <c r="D38" s="1" t="s">
         <v>166</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="4:11" ht="15">
+    <row r="39" spans="4:11" ht="13.9">
       <c r="D39" s="1" t="s">
         <v>167</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="4:11" ht="15">
+    <row r="40" spans="4:11" ht="13.9">
       <c r="D40" s="1" t="s">
         <v>168</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="4:11" ht="15">
+    <row r="41" spans="4:11" ht="13.9">
       <c r="D41" s="1" t="s">
         <v>169</v>
       </c>
@@ -1717,11 +1720,6 @@
     </row>
     <row r="45" spans="4:11">
       <c r="D45" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="4:11">
-      <c r="D46" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1737,22 +1735,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656DA4B-70D5-4239-B198-591510344634}">
   <dimension ref="B1:CC110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AI15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ48" sqref="AQ48"/>
+      <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="42" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1328125" style="1"/>
+    <col min="10" max="10" width="9.1328125" style="1" customWidth="1"/>
+    <col min="11" max="42" width="9.1328125" style="1"/>
     <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="44" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:81">
@@ -1897,7 +1895,7 @@
       <c r="CB1" s="9"/>
       <c r="CC1" s="9"/>
     </row>
-    <row r="2" spans="2:81" ht="15">
+    <row r="2" spans="2:81" ht="13.9">
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2477,7 +2475,7 @@
       <c r="CB4" s="9"/>
       <c r="CC4" s="9"/>
     </row>
-    <row r="5" spans="2:81" ht="15">
+    <row r="5" spans="2:81" ht="13.9">
       <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3367,7 +3365,7 @@
       <c r="CB10" s="11"/>
       <c r="CC10" s="11"/>
     </row>
-    <row r="11" spans="2:81" ht="15">
+    <row r="11" spans="2:81" ht="13.9">
       <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
@@ -3926,7 +3924,7 @@
       <c r="CB14" s="14"/>
       <c r="CC14" s="14"/>
     </row>
-    <row r="15" spans="2:81" ht="15">
+    <row r="15" spans="2:81" ht="13.9">
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
@@ -4659,7 +4657,7 @@
       <c r="CB20" s="14"/>
       <c r="CC20" s="14"/>
     </row>
-    <row r="21" spans="2:81" ht="15">
+    <row r="21" spans="2:81" ht="13.9">
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
@@ -6577,7 +6575,7 @@
       <c r="CB34" s="9"/>
       <c r="CC34" s="9"/>
     </row>
-    <row r="35" spans="2:81" ht="15">
+    <row r="35" spans="2:81" ht="13.9">
       <c r="B35" s="2" t="s">
         <v>103</v>
       </c>
@@ -7249,7 +7247,7 @@
       <c r="CB38" s="9"/>
       <c r="CC38" s="9"/>
     </row>
-    <row r="39" spans="2:81" ht="15">
+    <row r="39" spans="2:81" ht="13.9">
       <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
@@ -7395,7 +7393,7 @@
       <c r="CB39" s="9"/>
       <c r="CC39" s="9"/>
     </row>
-    <row r="40" spans="2:81" ht="15">
+    <row r="40" spans="2:81" ht="13.9">
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -12884,7 +12882,7 @@
       <c r="CB84" s="9"/>
       <c r="CC84" s="9"/>
     </row>
-    <row r="85" spans="2:81" ht="15">
+    <row r="85" spans="2:81" ht="13.9">
       <c r="B85" s="2" t="s">
         <v>126</v>
       </c>
@@ -14199,7 +14197,7 @@
       <c r="CB94" s="9"/>
       <c r="CC94" s="9"/>
     </row>
-    <row r="95" spans="2:81" ht="15">
+    <row r="95" spans="2:81" ht="13.9">
       <c r="B95" s="2" t="s">
         <v>127</v>
       </c>
@@ -15234,7 +15232,7 @@
       <c r="CB102" s="9"/>
       <c r="CC102" s="9"/>
     </row>
-    <row r="103" spans="2:81" ht="15">
+    <row r="103" spans="2:81" ht="13.9">
       <c r="B103" s="2" t="s">
         <v>138</v>
       </c>
@@ -15549,7 +15547,7 @@
       <c r="CB105" s="9"/>
       <c r="CC105" s="9"/>
     </row>
-    <row r="106" spans="2:81" ht="15">
+    <row r="106" spans="2:81" ht="13.9">
       <c r="B106" s="2" t="s">
         <v>126</v>
       </c>
@@ -15841,7 +15839,7 @@
       <c r="CB107" s="9"/>
       <c r="CC107" s="9"/>
     </row>
-    <row r="108" spans="2:81" ht="15">
+    <row r="108" spans="2:81" ht="13.9">
       <c r="B108" s="2" t="s">
         <v>135</v>
       </c>
@@ -16133,7 +16131,7 @@
       <c r="CB109" s="9"/>
       <c r="CC109" s="9"/>
     </row>
-    <row r="110" spans="2:81" ht="15">
+    <row r="110" spans="2:81" ht="13.9">
       <c r="B110" s="2" t="s">
         <v>137</v>
       </c>

--- a/KO_Model.xlsx
+++ b/KO_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Consumer Staples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819FEAB5-9481-4C15-A58C-CFC254AE127D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2E6BE2-0B49-4986-9D4B-2DB6FD26C574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Founded: 1886</t>
   </si>
   <si>
-    <t>Headquarted: Atlanta, Georgia</t>
-  </si>
-  <si>
     <t>Current CEO: James Robert Quincy</t>
   </si>
   <si>
@@ -101,6 +98,659 @@
       </rPr>
       <t xml:space="preserve"> worldwide.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It also offers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>beverage concentrates and syrups</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve">, as well as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>fountain syrups to fountain retailers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>, such as restaurants and convenience stores.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> operates through a network of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve">independent bottling partners, distributors, wholesalers, and retailers, as well as through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>bottling and distribution operators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Product Lines:</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Q1'20</t>
+  </si>
+  <si>
+    <t>Q2'20</t>
+  </si>
+  <si>
+    <t>Q3'20</t>
+  </si>
+  <si>
+    <t>Q4'20</t>
+  </si>
+  <si>
+    <t>Q1'21</t>
+  </si>
+  <si>
+    <t>Q2'21</t>
+  </si>
+  <si>
+    <t>Q3'21</t>
+  </si>
+  <si>
+    <t>Q4'21</t>
+  </si>
+  <si>
+    <t>Q1'22</t>
+  </si>
+  <si>
+    <t>Q2'22</t>
+  </si>
+  <si>
+    <t>Q3'22</t>
+  </si>
+  <si>
+    <t>Q4'22</t>
+  </si>
+  <si>
+    <t>Q1'23</t>
+  </si>
+  <si>
+    <t>Q2'23</t>
+  </si>
+  <si>
+    <t>Q3'23</t>
+  </si>
+  <si>
+    <t>Q4'23</t>
+  </si>
+  <si>
+    <t>Q1'24</t>
+  </si>
+  <si>
+    <t>Q2'24</t>
+  </si>
+  <si>
+    <t>Q3'24</t>
+  </si>
+  <si>
+    <t>Q4'24</t>
+  </si>
+  <si>
+    <t>Q2'25</t>
+  </si>
+  <si>
+    <t>Q3'25</t>
+  </si>
+  <si>
+    <t>Q4'25</t>
+  </si>
+  <si>
+    <t>Q1'26</t>
+  </si>
+  <si>
+    <t>Q2'26</t>
+  </si>
+  <si>
+    <t>Q3'26</t>
+  </si>
+  <si>
+    <t>Q4'26</t>
+  </si>
+  <si>
+    <t>Concentrate Operations</t>
+  </si>
+  <si>
+    <t>Finished Product Operations</t>
+  </si>
+  <si>
+    <t>Ttl Revenues</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>U.S. Revenues</t>
+  </si>
+  <si>
+    <t>International Revenues</t>
+  </si>
+  <si>
+    <t>Concentrate Growth Y/y</t>
+  </si>
+  <si>
+    <t>Finish Product Growth Y/y</t>
+  </si>
+  <si>
+    <t>Ttl Revenue Growth Y/y</t>
+  </si>
+  <si>
+    <t>U.S. Growth Y/y</t>
+  </si>
+  <si>
+    <t>International Growth Y/y</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Operating Income</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>Equity Income (Loss), net</t>
+  </si>
+  <si>
+    <t>Other Income (Loss), net</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Less Non-Controlling Interest</t>
+  </si>
+  <si>
+    <t>C &amp; CE's</t>
+  </si>
+  <si>
+    <t>ST Investments</t>
+  </si>
+  <si>
+    <t>A/R, net</t>
+  </si>
+  <si>
+    <t>Prepaid Expenses</t>
+  </si>
+  <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>Deffered Income Tax Assets</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Trademarks</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Other Noncurrent Assets</t>
+  </si>
+  <si>
+    <t>Ttl Assets</t>
+  </si>
+  <si>
+    <t>A/P</t>
+  </si>
+  <si>
+    <t>Loans and Notes Payable</t>
+  </si>
+  <si>
+    <t>Current Portions of LT Debt</t>
+  </si>
+  <si>
+    <t>Accrued Income Taxes</t>
+  </si>
+  <si>
+    <t>LT Debt</t>
+  </si>
+  <si>
+    <t>Other Liabilities</t>
+  </si>
+  <si>
+    <t>Deffered Income Tax Liabilities</t>
+  </si>
+  <si>
+    <t>Ttl Liabilities</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>Interest Expenses</t>
+  </si>
+  <si>
+    <t>The Company sells its products under the Coca-Cola, Diet Coke/Coca-Cola Light, Coca-Cola Zero Sugar, Fanta, Fresca, Schweppes, Sprite, Thums Up, Aquarius, Ciel, dogadan, Dasani, glacéau smartwater, glacéau vitaminwater, Ice Dew, I LOHAS, Powerade, Topo Chico, AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy, Simply, Ayataka, BODYARMOR, Costa, FUZE TEA, Georgia, and Gold Peak brands.</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Operating Income Growth Y/y</t>
+  </si>
+  <si>
+    <t>Profit Margin Growth Y/y</t>
+  </si>
+  <si>
+    <t>Net Income Growth Y/y</t>
+  </si>
+  <si>
+    <t>LT Equity Investment</t>
+  </si>
+  <si>
+    <t>Other Investments</t>
+  </si>
+  <si>
+    <t>Other Intangible</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L + SE</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Ttl Rev</t>
+  </si>
+  <si>
+    <t>NI to Coca Cola Co.</t>
+  </si>
+  <si>
+    <t>Inv</t>
+  </si>
+  <si>
+    <t>Dep. and Amm.</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Deferred Taxes</t>
+  </si>
+  <si>
+    <t>Equity (Income) Loss</t>
+  </si>
+  <si>
+    <t>Currency Adj</t>
+  </si>
+  <si>
+    <t>Significant (Gain) Loss</t>
+  </si>
+  <si>
+    <t>Other Operating Charges</t>
+  </si>
+  <si>
+    <t>Other Items</t>
+  </si>
+  <si>
+    <t>Change in Operating Ass./Liab.</t>
+  </si>
+  <si>
+    <t>Purchases of Investments</t>
+  </si>
+  <si>
+    <t>Proceeds from Divestment</t>
+  </si>
+  <si>
+    <t>Acquisition of Businesses</t>
+  </si>
+  <si>
+    <t>Divestment from Businesses</t>
+  </si>
+  <si>
+    <t>Purchases of PP&amp;E</t>
+  </si>
+  <si>
+    <t>(Paid) Received from Hedging</t>
+  </si>
+  <si>
+    <t>Other Investing Activities</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Issuance of Debt</t>
+  </si>
+  <si>
+    <t>Payments of Loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issuance of Stock </t>
+  </si>
+  <si>
+    <t>Stock Repurchased</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Other Financing Activities</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>FCF per Share</t>
+  </si>
+  <si>
+    <t>CFA</t>
+  </si>
+  <si>
+    <t>Effect of Exchange Rate</t>
+  </si>
+  <si>
+    <t>Disposal of PP&amp;E</t>
+  </si>
+  <si>
+    <t>The Company sells its products in two forms:</t>
+  </si>
+  <si>
+    <t>List of franchised bottlers:</t>
+  </si>
+  <si>
+    <t>The Company manufactures, markets, sells and distributes beverage syrups and concentrates which it sells to a network of bottlers to process further before distribution to end consumer points.</t>
+  </si>
+  <si>
+    <t>Ticker:</t>
+  </si>
+  <si>
+    <t>Liberty Coca-Cola Beverages</t>
+  </si>
+  <si>
+    <t>Smaller Regional Operators</t>
+  </si>
+  <si>
+    <t>CCEP</t>
+  </si>
+  <si>
+    <t>KOF</t>
+  </si>
+  <si>
+    <t>CCH.L</t>
+  </si>
+  <si>
+    <t>AC.MX</t>
+  </si>
+  <si>
+    <t>COKE</t>
+  </si>
+  <si>
+    <t>AKO.A</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Europe, Australia, New Zealand, Indonesia, other</t>
+  </si>
+  <si>
+    <t>Europe, Africa</t>
+  </si>
+  <si>
+    <t>Largest independent bottler in the US, serving Southeast, Mid-Atlantic and Midwestern regions</t>
+  </si>
+  <si>
+    <t>Lat Am: Mexico, Brazil, Columbia, Argentina, other</t>
+  </si>
+  <si>
+    <t>Lat Am: Mexico, Ecuador, Peru, Argentina, and parts of the U.S. through Coca-Cola Southwest Beverages</t>
+  </si>
+  <si>
+    <t>LatAm: Chile, Brazil, Argentina, Paraguay</t>
+  </si>
+  <si>
+    <t>Significant US bottler</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Market(s):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>Coca-Cola Europacific</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> (28% KO non-controlling stake)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>Coca-Cola FEMSA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> (20% KO non-controlling stake)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>Coca-Cola HBC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> (23% KO non-controlling stake)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>Arca Continental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> (28% KO non-controlling stake)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t>Embotelladora Andina</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibre"/>
+      </rPr>
+      <t xml:space="preserve"> (19% KO non-controlling stake)</t>
+    </r>
+  </si>
+  <si>
+    <t>Concentrate Sales:</t>
+  </si>
+  <si>
+    <t>Finished Product Sales:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These Equity investments are managed by the Coca-Cola Bottling Investment Group (a subsidiary of The Company). Equity stakes have fluctuated throughout time. </t>
+  </si>
+  <si>
+    <t>The Company generates revenues from branded merchandise, specialty products/limited edition offerings (small but growing segment)</t>
+  </si>
+  <si>
+    <t>Finshed Product % of Ttl Rev</t>
+  </si>
+  <si>
+    <t>Concentrate % of Ttl Rev</t>
+  </si>
+  <si>
+    <t>U.S. % of Revenues</t>
+  </si>
+  <si>
+    <t>International % of Revenues</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Headquarter: Atlanta, Georgia</t>
   </si>
   <si>
     <r>
@@ -198,7 +848,7 @@
         <color theme="1"/>
         <rFont val="Calibre"/>
       </rPr>
-      <t>plantbased</t>
+      <t>plant based</t>
     </r>
     <r>
       <rPr>
@@ -278,615 +928,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">It also offers </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>beverage concentrates and syrups</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve">, as well as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>fountain syrups to fountain retailers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>, such as restaurants and convenience stores.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>It</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> operates through a network of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve">independent bottling partners, distributors, wholesalers, and retailers, as well as through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>bottling and distribution operators</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Product Lines:</t>
-  </si>
-  <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
-    <t>Revenues</t>
-  </si>
-  <si>
-    <t>Q1'20</t>
-  </si>
-  <si>
-    <t>Q2'20</t>
-  </si>
-  <si>
-    <t>Q3'20</t>
-  </si>
-  <si>
-    <t>Q4'20</t>
-  </si>
-  <si>
-    <t>Q1'21</t>
-  </si>
-  <si>
-    <t>Q2'21</t>
-  </si>
-  <si>
-    <t>Q3'21</t>
-  </si>
-  <si>
-    <t>Q4'21</t>
-  </si>
-  <si>
-    <t>Q1'22</t>
-  </si>
-  <si>
-    <t>Q2'22</t>
-  </si>
-  <si>
-    <t>Q3'22</t>
-  </si>
-  <si>
-    <t>Q4'22</t>
-  </si>
-  <si>
-    <t>Q1'23</t>
-  </si>
-  <si>
-    <t>Q2'23</t>
-  </si>
-  <si>
-    <t>Q3'23</t>
-  </si>
-  <si>
-    <t>Q4'23</t>
-  </si>
-  <si>
-    <t>Q1'24</t>
-  </si>
-  <si>
-    <t>Q2'24</t>
-  </si>
-  <si>
-    <t>Q3'24</t>
-  </si>
-  <si>
-    <t>Q4'24</t>
-  </si>
-  <si>
-    <t>Q2'25</t>
-  </si>
-  <si>
-    <t>Q3'25</t>
-  </si>
-  <si>
-    <t>Q4'25</t>
-  </si>
-  <si>
-    <t>Q1'26</t>
-  </si>
-  <si>
-    <t>Q2'26</t>
-  </si>
-  <si>
-    <t>Q3'26</t>
-  </si>
-  <si>
-    <t>Q4'26</t>
-  </si>
-  <si>
-    <t>Concentrate Operations</t>
-  </si>
-  <si>
-    <t>Finished Product Operations</t>
-  </si>
-  <si>
-    <t>Ttl Revenues</t>
-  </si>
-  <si>
-    <t>SG&amp;A</t>
-  </si>
-  <si>
-    <t>U.S. Revenues</t>
-  </si>
-  <si>
-    <t>International Revenues</t>
-  </si>
-  <si>
-    <t>Concentrate Growth Y/y</t>
-  </si>
-  <si>
-    <t>Finish Product Growth Y/y</t>
-  </si>
-  <si>
-    <t>Ttl Revenue Growth Y/y</t>
-  </si>
-  <si>
-    <t>U.S. Growth Y/y</t>
-  </si>
-  <si>
-    <t>International Growth Y/y</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Operating Income</t>
-  </si>
-  <si>
-    <t>Interest Income</t>
-  </si>
-  <si>
-    <t>Equity Income (Loss), net</t>
-  </si>
-  <si>
-    <t>Other Income (Loss), net</t>
-  </si>
-  <si>
-    <t>Pretax Income</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Net Income</t>
-  </si>
-  <si>
-    <t>Less Non-Controlling Interest</t>
-  </si>
-  <si>
-    <t>C &amp; CE's</t>
-  </si>
-  <si>
-    <t>ST Investments</t>
-  </si>
-  <si>
-    <t>A/R, net</t>
-  </si>
-  <si>
-    <t>Prepaid Expenses</t>
-  </si>
-  <si>
-    <t>Marketable Securities</t>
-  </si>
-  <si>
-    <t>Deffered Income Tax Assets</t>
-  </si>
-  <si>
-    <t>PP&amp;E</t>
-  </si>
-  <si>
-    <t>Trademarks</t>
-  </si>
-  <si>
-    <t>Goodwill</t>
-  </si>
-  <si>
-    <t>Other Noncurrent Assets</t>
-  </si>
-  <si>
-    <t>Ttl Assets</t>
-  </si>
-  <si>
-    <t>A/P</t>
-  </si>
-  <si>
-    <t>Loans and Notes Payable</t>
-  </si>
-  <si>
-    <t>Current Portions of LT Debt</t>
-  </si>
-  <si>
-    <t>Accrued Income Taxes</t>
-  </si>
-  <si>
-    <t>LT Debt</t>
-  </si>
-  <si>
-    <t>Other Liabilities</t>
-  </si>
-  <si>
-    <t>Deffered Income Tax Liabilities</t>
-  </si>
-  <si>
-    <t>Ttl Liabilities</t>
-  </si>
-  <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>Interest Expenses</t>
-  </si>
-  <si>
-    <t>The Company sells its products under the Coca-Cola, Diet Coke/Coca-Cola Light, Coca-Cola Zero Sugar, Fanta, Fresca, Schweppes, Sprite, Thums Up, Aquarius, Ciel, dogadan, Dasani, glacéau smartwater, glacéau vitaminwater, Ice Dew, I LOHAS, Powerade, Topo Chico, AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy, Simply, Ayataka, BODYARMOR, Costa, FUZE TEA, Georgia, and Gold Peak brands.</t>
-  </si>
-  <si>
-    <t>Profit Margin</t>
-  </si>
-  <si>
-    <t>Operating Income Growth Y/y</t>
-  </si>
-  <si>
-    <t>Profit Margin Growth Y/y</t>
-  </si>
-  <si>
-    <t>Net Income Growth Y/y</t>
-  </si>
-  <si>
-    <t>LT Equity Investment</t>
-  </si>
-  <si>
-    <t>Other Investments</t>
-  </si>
-  <si>
-    <t>Other Intangible</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>L + SE</t>
-  </si>
-  <si>
-    <t>NI</t>
-  </si>
-  <si>
-    <t>OI</t>
-  </si>
-  <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Ttl Rev</t>
-  </si>
-  <si>
-    <t>NI to Coca Cola Co.</t>
-  </si>
-  <si>
-    <t>Inv</t>
-  </si>
-  <si>
-    <t>Dep. and Amm.</t>
-  </si>
-  <si>
-    <t>SBC</t>
-  </si>
-  <si>
-    <t>Deferred Taxes</t>
-  </si>
-  <si>
-    <t>Equity (Income) Loss</t>
-  </si>
-  <si>
-    <t>Currency Adj</t>
-  </si>
-  <si>
-    <t>Significant (Gain) Loss</t>
-  </si>
-  <si>
-    <t>Other Operating Charges</t>
-  </si>
-  <si>
-    <t>Other Items</t>
-  </si>
-  <si>
-    <t>Change in Operating Ass./Liab.</t>
-  </si>
-  <si>
-    <t>Purchases of Investments</t>
-  </si>
-  <si>
-    <t>Proceeds from Divestment</t>
-  </si>
-  <si>
-    <t>Acquisition of Businesses</t>
-  </si>
-  <si>
-    <t>Divestment from Businesses</t>
-  </si>
-  <si>
-    <t>Purchases of PP&amp;E</t>
-  </si>
-  <si>
-    <t>(Paid) Received from Hedging</t>
-  </si>
-  <si>
-    <t>Other Investing Activities</t>
-  </si>
-  <si>
-    <t>CFFO</t>
-  </si>
-  <si>
-    <t>CFFI</t>
-  </si>
-  <si>
-    <t>Issuance of Debt</t>
-  </si>
-  <si>
-    <t>Payments of Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issuance of Stock </t>
-  </si>
-  <si>
-    <t>Stock Repurchased</t>
-  </si>
-  <si>
-    <t>Dividends</t>
-  </si>
-  <si>
-    <t>Other Financing Activities</t>
-  </si>
-  <si>
-    <t>Capex</t>
-  </si>
-  <si>
-    <t>FCF</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>FCF per Share</t>
-  </si>
-  <si>
-    <t>CFA</t>
-  </si>
-  <si>
-    <t>Effect of Exchange Rate</t>
-  </si>
-  <si>
-    <t>Disposal of PP&amp;E</t>
-  </si>
-  <si>
-    <t>The Company sells its products in two forms:</t>
-  </si>
-  <si>
-    <t>List of franchised bottlers:</t>
-  </si>
-  <si>
-    <t>The Company manufactures, markets, sells and distributes beverage syrups and concentrates which it sells to a network of bottlers to process further before distribution to end consumer points.</t>
-  </si>
-  <si>
-    <t>Ticker:</t>
-  </si>
-  <si>
-    <t>Liberty Coca-Cola Beverages</t>
-  </si>
-  <si>
-    <t>Smaller Regional Operators</t>
-  </si>
-  <si>
-    <t>CCEP</t>
-  </si>
-  <si>
-    <t>KOF</t>
-  </si>
-  <si>
-    <t>CCH.L</t>
-  </si>
-  <si>
-    <t>AC.MX</t>
-  </si>
-  <si>
-    <t>COKE</t>
-  </si>
-  <si>
-    <t>AKO.A</t>
-  </si>
-  <si>
-    <t>Private</t>
-  </si>
-  <si>
-    <t>Europe, Australia, New Zealand, Indonesia, other</t>
-  </si>
-  <si>
-    <t>Europe, Africa</t>
-  </si>
-  <si>
-    <t>Largest independent bottler in the US, serving Southeast, Mid-Atlantic and Midwestern regions</t>
-  </si>
-  <si>
-    <t>Lat Am: Mexico, Brazil, Columbia, Argentina, other</t>
-  </si>
-  <si>
-    <t>Lat Am: Mexico, Ecuador, Peru, Argentina, and parts of the U.S. through Coca-Cola Southwest Beverages</t>
-  </si>
-  <si>
-    <t>LatAm: Chile, Brazil, Argentina, Paraguay</t>
-  </si>
-  <si>
-    <t>Significant US bottler</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Market(s):</t>
-  </si>
-  <si>
-    <t>The Company has limited "in-house" bottling operations; they primarily franchise these operations to liscenced firms.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>Coca-Cola Europacific</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> (28% KO non-controlling stake)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>Coca-Cola FEMSA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> (20% KO non-controlling stake)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>Coca-Cola HBC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> (23% KO non-controlling stake)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>Arca Continental</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> (28% KO non-controlling stake)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t>Embotelladora Andina</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibre"/>
-      </rPr>
-      <t xml:space="preserve"> (19% KO non-controlling stake)</t>
-    </r>
+    <t>The Company has limited "in-house" bottling operations; they primarily franchise these operations to licensed firms.</t>
+  </si>
+  <si>
+    <t>The Company has equity interest in many of their franchised bottling plants, and vertically integrates operations in markets that require greater control/oversight (Africa/parts of Asia). These earnings are recognized as Finished Good Revenues</t>
   </si>
   <si>
     <r>
@@ -904,53 +949,8 @@
         <color theme="1"/>
         <rFont val="Calibre"/>
       </rPr>
-      <t xml:space="preserve"> (Indpendent operator from KO)</t>
+      <t xml:space="preserve"> (Independent operator from KO)</t>
     </r>
-  </si>
-  <si>
-    <t>Concentrate Sales:</t>
-  </si>
-  <si>
-    <t>Finished Product Sales:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These Equity investments are managed by the Coca-Cola Bottling Investment Group (a subsidiary of The Company). Equity stakes have fluctuated throughout time. </t>
-  </si>
-  <si>
-    <t>The Company has equity interest in many of their franchised bottling plants, and verticly integrates operations in markets that require greater control/oversight (Africa/parts of Asia). These earnings are reconginized as Finished Good Revenues</t>
-  </si>
-  <si>
-    <t>The Company generates revenues from branded merchandise, specialty products/limited edition offerings (small but growing segment)</t>
-  </si>
-  <si>
-    <t>Finshed Product % of Ttl Rev</t>
-  </si>
-  <si>
-    <t>Concentrate % of Ttl Rev</t>
-  </si>
-  <si>
-    <t>U.S. % of Revenues</t>
-  </si>
-  <si>
-    <t>International % of Revenues</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>FV</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>Master</t>
   </si>
 </sst>
 </file>
@@ -1435,26 +1435,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="1"/>
-    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.46484375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.9">
+    <row r="2" spans="1:4" ht="15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1523,12 +1523,12 @@
         <v>329853.03999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.9">
+    <row r="10" spans="1:4" ht="15">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.9">
+    <row r="12" spans="1:4" ht="15">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1540,83 +1540,83 @@
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.9">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:5" ht="15">
+      <c r="C20" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15">
+      <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.9">
-      <c r="C20" s="1" t="s">
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.9">
-      <c r="C21" s="1" t="s">
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="13.9">
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="13.9">
-      <c r="B24" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="E32" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="4:11">
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="35" spans="4:11" ht="13.9">
+    <row r="35" spans="4:11" ht="15">
       <c r="D35" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1624,103 +1624,103 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K35" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" ht="15">
+      <c r="D36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" ht="15">
+      <c r="D37" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="J37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="36" spans="4:11" ht="13.9">
-      <c r="D36" s="1" t="s">
+    <row r="38" spans="4:11" ht="15">
+      <c r="D38" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" ht="15">
+      <c r="D39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="J39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" ht="15">
+      <c r="D40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" ht="15">
+      <c r="D41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="4:11" ht="13.9">
-      <c r="D37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="4:11" ht="13.9">
-      <c r="D38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="4:11" ht="13.9">
-      <c r="D39" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11" ht="13.9">
-      <c r="D40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="4:11" ht="13.9">
-      <c r="D41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42" spans="4:11">
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="4:11">
       <c r="D43" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="4:11">
       <c r="D45" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1735,123 +1735,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3656DA4B-70D5-4239-B198-591510344634}">
   <dimension ref="B1:CC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AI38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AS16" sqref="AS16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9.1328125" style="1"/>
-    <col min="10" max="10" width="9.1328125" style="1" customWidth="1"/>
-    <col min="11" max="42" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="42" width="9.140625" style="1"/>
     <col min="43" max="43" width="9" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9.1328125" style="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:81">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="U1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AO1" s="9"/>
       <c r="AP1" s="9"/>
@@ -1895,105 +1895,105 @@
       <c r="CB1" s="9"/>
       <c r="CC1" s="9"/>
     </row>
-    <row r="2" spans="2:81" ht="13.9">
+    <row r="2" spans="2:81" ht="15">
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="AE2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="AJ2" s="2">
         <v>2020</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="3" spans="2:81">
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>4789</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="4" spans="2:81">
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>3812</v>
@@ -2475,9 +2475,9 @@
       <c r="CB4" s="9"/>
       <c r="CC4" s="9"/>
     </row>
-    <row r="5" spans="2:81" ht="13.9">
+    <row r="5" spans="2:81" ht="15">
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:R5" si="28">C4+C3</f>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" ref="C7:U7" si="32">C3/C5</f>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="8" spans="2:81">
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:U8" si="34">C4/C5</f>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="9" spans="2:81">
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="10" spans="2:81">
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3365,9 +3365,9 @@
       <c r="CB10" s="11"/>
       <c r="CC10" s="11"/>
     </row>
-    <row r="11" spans="2:81" ht="13.9">
+    <row r="11" spans="2:81" ht="15">
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="13" spans="2:81">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>2807</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="14" spans="2:81">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>5794</v>
@@ -3924,9 +3924,9 @@
       <c r="CB14" s="14"/>
       <c r="CC14" s="14"/>
     </row>
-    <row r="15" spans="2:81" ht="13.9">
+    <row r="15" spans="2:81" ht="15">
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15" si="44">C14+C13</f>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="17" spans="2:81">
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" ref="C17:U17" si="59">C13/C15</f>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="18" spans="2:81">
       <c r="B18" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" ref="C18:U18" si="61">C14/C15</f>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="19" spans="2:81">
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ref="G19:U19" si="63">G13/C13-1</f>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="20" spans="2:81">
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:V20" si="65">G14/C14-1</f>
@@ -4657,9 +4657,9 @@
       <c r="CB20" s="14"/>
       <c r="CC20" s="14"/>
     </row>
-    <row r="21" spans="2:81" ht="13.9">
+    <row r="21" spans="2:81" ht="15">
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" ref="G21:V21" si="67">G15/C15-1</f>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="23" spans="2:81">
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:U23" si="69">C15</f>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="24" spans="2:81">
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1">
         <v>3371</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="25" spans="2:81">
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ref="C25:R25" si="77">C23-C24</f>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="26" spans="2:81">
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>2648</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="27" spans="2:81">
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1">
         <v>202</v>
@@ -5630,7 +5630,7 @@
     </row>
     <row r="28" spans="2:81">
       <c r="B28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:R28" si="79">C25-SUM(C26:C27)</f>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="29" spans="2:81">
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1">
         <v>112</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="30" spans="2:81">
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1">
         <v>193</v>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="31" spans="2:81">
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1">
         <v>167</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="32" spans="2:81">
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1">
         <v>544</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="33" spans="2:81">
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ref="C33:R33" si="81">C28+C29-C30+C31+C32</f>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="34" spans="2:81">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1">
         <v>215</v>
@@ -6575,9 +6575,9 @@
       <c r="CB34" s="9"/>
       <c r="CC34" s="9"/>
     </row>
-    <row r="35" spans="2:81" ht="13.9">
+    <row r="35" spans="2:81" ht="15">
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ref="C35:R35" si="83">C33-C34</f>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="36" spans="2:81">
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1">
         <v>20</v>
@@ -6977,7 +6977,7 @@
     </row>
     <row r="37" spans="2:81">
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:N37" si="87">C35-C36</f>
@@ -7247,9 +7247,9 @@
       <c r="CB38" s="9"/>
       <c r="CC38" s="9"/>
     </row>
-    <row r="39" spans="2:81" ht="13.9">
+    <row r="39" spans="2:81" ht="15">
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" ref="C39:J39" si="89">C37/C38</f>
@@ -7393,7 +7393,7 @@
       <c r="CB39" s="9"/>
       <c r="CC39" s="9"/>
     </row>
-    <row r="40" spans="2:81" ht="13.9">
+    <row r="40" spans="2:81" ht="15">
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="41" spans="2:81">
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" ref="C41:U41" si="91">C25/C23</f>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="42" spans="2:81">
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="43" spans="2:81">
       <c r="B43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" ref="C43:U43" si="94">C28/C23</f>
@@ -7911,7 +7911,7 @@
     </row>
     <row r="44" spans="2:81">
       <c r="B44" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="45" spans="2:81">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7">
         <f>C35/C23</f>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="46" spans="2:81">
       <c r="B46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="48" spans="2:81">
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F48" s="1">
         <v>6795</v>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="AO48" s="9"/>
       <c r="AP48" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AQ48" s="13">
         <v>0.05</v>
@@ -8495,7 +8495,7 @@
     </row>
     <row r="49" spans="2:81">
       <c r="B49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1">
         <v>1771</v>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="AO49" s="9"/>
       <c r="AP49" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AQ49" s="13">
         <v>0.03</v>
@@ -8616,7 +8616,7 @@
     </row>
     <row r="50" spans="2:81">
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F50" s="1">
         <v>2348</v>
@@ -8691,7 +8691,7 @@
       </c>
       <c r="AO50" s="9"/>
       <c r="AP50" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AQ50" s="14">
         <f>NPV(AQ48,AO35:CM35)</f>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="51" spans="2:81">
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F51" s="1">
         <v>3144</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="AO51" s="9"/>
       <c r="AP51" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AQ51" s="14">
         <v>4301</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="52" spans="2:81">
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F52" s="1">
         <v>3266</v>
@@ -8934,7 +8934,7 @@
       </c>
       <c r="AO52" s="9"/>
       <c r="AP52" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AQ52" s="15">
         <f>AQ50/AQ51</f>
@@ -8981,7 +8981,7 @@
     </row>
     <row r="53" spans="2:81">
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1">
         <v>1916</v>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="AO53" s="9"/>
       <c r="AP53" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AQ53" s="15">
         <v>70.37</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="54" spans="2:81">
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F54" s="1">
         <v>19273</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="55" spans="2:81">
       <c r="B55" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="1">
         <v>812</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="56" spans="2:81">
       <c r="B56" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F56" s="1">
         <v>6184</v>
@@ -9460,7 +9460,7 @@
     </row>
     <row r="57" spans="2:81">
       <c r="B57" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="1">
         <v>2460</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="58" spans="2:81">
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="1">
         <v>10777</v>
@@ -9694,7 +9694,7 @@
     </row>
     <row r="59" spans="2:81">
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="1">
         <v>10395</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="60" spans="2:81">
       <c r="B60" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F60" s="1">
         <v>17506</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="61" spans="2:81">
       <c r="B61" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F61" s="1">
         <v>649</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="62" spans="2:81">
       <c r="B62" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" ref="F62:V62" si="107">SUM(F48:F61)</f>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="64" spans="2:81">
       <c r="B64" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="1">
         <v>11145</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="65" spans="2:81">
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="1">
         <v>2183</v>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="66" spans="2:81">
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="1">
         <v>485</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="67" spans="2:81">
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="1">
         <v>788</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="68" spans="2:81">
       <c r="B68" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="1">
         <v>40125</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="69" spans="2:81">
       <c r="B69" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="1">
         <v>9453</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="70" spans="2:81">
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="1">
         <v>1833</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="71" spans="2:81">
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" ref="F71:T71" si="113">SUM(F64:F70)</f>
@@ -11175,7 +11175,7 @@
     </row>
     <row r="72" spans="2:81">
       <c r="B72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="1">
         <v>21284</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="73" spans="2:81">
       <c r="B73" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" ref="F73:T73" si="115">F71+F72</f>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="75" spans="2:81">
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" ref="C75:R75" si="116">C35</f>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="76" spans="2:81">
       <c r="B76" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="1">
         <v>367</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="77" spans="2:81">
       <c r="B77" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1">
         <v>-5</v>
@@ -11897,7 +11897,7 @@
     </row>
     <row r="78" spans="2:81">
       <c r="B78" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="1">
         <v>-122</v>
@@ -12038,7 +12038,7 @@
     </row>
     <row r="79" spans="2:81">
       <c r="B79" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="1">
         <v>-157</v>
@@ -12179,7 +12179,7 @@
     </row>
     <row r="80" spans="2:81">
       <c r="B80" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="1">
         <v>-59</v>
@@ -12320,7 +12320,7 @@
     </row>
     <row r="81" spans="2:81">
       <c r="B81" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="1">
         <v>-919</v>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="82" spans="2:81">
       <c r="B82" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82" s="1">
         <v>190</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="83" spans="2:81">
       <c r="B83" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="1">
         <v>235</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="84" spans="2:81">
       <c r="B84" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C84" s="1">
         <v>-1769</v>
@@ -12882,9 +12882,9 @@
       <c r="CB84" s="9"/>
       <c r="CC84" s="9"/>
     </row>
-    <row r="85" spans="2:81" ht="13.9">
+    <row r="85" spans="2:81" ht="15">
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" ref="C85:S85" si="123">SUM(C75:C84)</f>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="87" spans="2:81">
       <c r="B87" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="1">
         <v>-1455</v>
@@ -13214,7 +13214,7 @@
     </row>
     <row r="88" spans="2:81">
       <c r="B88" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="1">
         <v>1603</v>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="89" spans="2:81">
       <c r="B89" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="1">
         <v>-984</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="90" spans="2:81">
       <c r="B90" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="1">
         <v>36</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="91" spans="2:81">
       <c r="B91" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C91" s="1">
         <v>-327</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="92" spans="2:81">
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C92" s="1">
         <v>91</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="93" spans="2:81">
       <c r="B93" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -14058,7 +14058,7 @@
     </row>
     <row r="94" spans="2:81">
       <c r="B94" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C94" s="1">
         <v>-48</v>
@@ -14197,9 +14197,9 @@
       <c r="CB94" s="9"/>
       <c r="CC94" s="9"/>
     </row>
-    <row r="95" spans="2:81" ht="13.9">
+    <row r="95" spans="2:81" ht="15">
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="1">
         <f t="shared" ref="C95:U95" si="135">SUM(C87:C94)</f>
@@ -14388,7 +14388,7 @@
     </row>
     <row r="97" spans="2:81">
       <c r="B97" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C97" s="1">
         <v>12563</v>
@@ -14529,7 +14529,7 @@
     </row>
     <row r="98" spans="2:81">
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C98" s="1">
         <v>-4833</v>
@@ -14670,7 +14670,7 @@
     </row>
     <row r="99" spans="2:81">
       <c r="B99" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C99" s="1">
         <v>413</v>
@@ -14811,7 +14811,7 @@
     </row>
     <row r="100" spans="2:81">
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C100" s="1">
         <v>-94</v>
@@ -14952,7 +14952,7 @@
     </row>
     <row r="101" spans="2:81">
       <c r="B101" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="102" spans="2:81">
       <c r="B102" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C102" s="1">
         <v>-239</v>
@@ -15232,9 +15232,9 @@
       <c r="CB102" s="9"/>
       <c r="CC102" s="9"/>
     </row>
-    <row r="103" spans="2:81" ht="13.9">
+    <row r="103" spans="2:81" ht="15">
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C103" s="1">
         <f t="shared" ref="C103:S103" si="142">SUM(C97:C102)</f>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="104" spans="2:81">
       <c r="B104" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C104" s="1">
         <v>-54</v>
@@ -15547,9 +15547,9 @@
       <c r="CB105" s="9"/>
       <c r="CC105" s="9"/>
     </row>
-    <row r="106" spans="2:81" ht="13.9">
+    <row r="106" spans="2:81" ht="15">
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C106" s="1">
         <f t="shared" ref="C106:U106" si="148">C85</f>
@@ -15695,7 +15695,7 @@
     </row>
     <row r="107" spans="2:81">
       <c r="B107" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C107" s="1">
         <f t="shared" ref="C107:R107" si="154">C91</f>
@@ -15839,9 +15839,9 @@
       <c r="CB107" s="9"/>
       <c r="CC107" s="9"/>
     </row>
-    <row r="108" spans="2:81" ht="13.9">
+    <row r="108" spans="2:81" ht="15">
       <c r="B108" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C108" s="1">
         <f t="shared" ref="C108:U108" si="156">SUM(C106:C107)</f>
@@ -15987,7 +15987,7 @@
     </row>
     <row r="109" spans="2:81">
       <c r="B109" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C109" s="1">
         <f t="shared" ref="C109:U109" si="157">C38</f>
@@ -16131,9 +16131,9 @@
       <c r="CB109" s="9"/>
       <c r="CC109" s="9"/>
     </row>
-    <row r="110" spans="2:81" ht="13.9">
+    <row r="110" spans="2:81" ht="15">
       <c r="B110" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C110" s="6">
         <f t="shared" ref="C110:U110" si="158">C108/C109</f>
